--- a/Scopus/Scopus_map_VOSviewer-clusters.xlsx
+++ b/Scopus/Scopus_map_VOSviewer-clusters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORHANT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORHANT\Documents\GitHub\appendix-bi-2024\Scopus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E41593D-923F-4A24-B1CB-5CAB92641D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC4FB92-803C-4FCF-8FC9-20ECA287FB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{86EC2A05-6E90-4097-8156-E469913FD7BA}"/>
+    <workbookView xWindow="6420" yWindow="2955" windowWidth="21600" windowHeight="11295" xr2:uid="{86EC2A05-6E90-4097-8156-E469913FD7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Scopus_map_VOSviewer - Summary" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="215">
   <si>
     <t>cluster</t>
   </si>
@@ -665,6 +665,36 @@
   </si>
   <si>
     <t>yoon c., the effects of national culture values on consumer acceptance of e-commerce: online shoppers in china, information &amp; management, 46, 5, pp. 294-301, (2009)</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Article Count</t>
+  </si>
+  <si>
+    <t>Relevance areas</t>
+  </si>
+  <si>
+    <t>Organizational behaviour, business and social sciences, social psychology, statistical analysis studies for the behavioral sciences</t>
+  </si>
+  <si>
+    <t>Hofstede g., culture’s consequences and studies directly related to measurement of cultural differences</t>
+  </si>
+  <si>
+    <t>Hofstede g., culture’s consequences, leadership and management in organizations</t>
+  </si>
+  <si>
+    <t>Hofstede g., culture’s consequences and cross-cultural management research</t>
+  </si>
+  <si>
+    <t>Uncertainty avoidance and national culture values</t>
+  </si>
+  <si>
+    <t>Management and psychometric theory</t>
+  </si>
+  <si>
+    <t>Total Count:</t>
   </si>
 </sst>
 </file>
@@ -688,7 +718,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -696,13 +726,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,72 +1135,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F7AFE5-6385-48C8-8333-00320776791E}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>81</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>59</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E2:E7)</f>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1160,7 +1290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D19A9DC-80A5-4B1C-A43C-0F77AAF5852E}">
   <dimension ref="A1:H197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
